--- a/Equipe103.xlsx
+++ b/Equipe103.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="8_{6BB8C8F4-817F-4135-A9EF-0E7E368F1CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B441C892-E2D3-490F-96D3-C1438BB4DCF8}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="8_{6BB8C8F4-817F-4135-A9EF-0E7E368F1CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EC74B8F-FE3B-4481-9360-E4B731A6655B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -401,7 +401,7 @@
 L'utilisation limitée de eslint:disable est tolérée dans les fichiers de test (.spec.ts). (Exemple : nombres magiques)</t>
   </si>
   <si>
-    <t>// eslint-disable-next-line no-console
+    <t xml:space="preserve">
  // eslint-disable-next-line @typescript-eslint/member-ordering
 non justifié</t>
   </si>
@@ -425,7 +425,7 @@
 Les noms ne sont pas troncés excessivement. (Exemple: utiliser background au lieu de seulement bg).</t>
   </si>
   <si>
-    <t>les noms des events sockets dans l'enum doivent respecter le format des constantes 
+    <t xml:space="preserve"> 
 buildJSONFile , fb-&gt; formBuilder
 quizID, removeUserBySocketID , roomID, 
 removeasyncFileRead + resolveasync ne repectent pas camelCase</t>
@@ -2488,6 +2488,9 @@
     <xf numFmtId="0" fontId="20" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2646,9 +2649,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3118,11 +3118,11 @@
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F59</f>
-        <v>0.8125</v>
+        <v>0.84450000000000003</v>
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0.91300000000000003</v>
+        <v>0.92579999999999996</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>18.260000000000002</v>
+        <v>18.515999999999998</v>
       </c>
       <c r="H5" s="116">
         <f>Documents!E16*5</f>
@@ -3190,8 +3190,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3210,36 +3210,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="266" t="s">
+      <c r="A2" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="266"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="267" t="s">
+      <c r="A4" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="267"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="267"/>
-      <c r="J4" s="267"/>
-      <c r="K4" s="267"/>
+      <c r="B4" s="268"/>
+      <c r="C4" s="268"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="268"/>
+      <c r="H4" s="268"/>
+      <c r="I4" s="268"/>
+      <c r="J4" s="268"/>
+      <c r="K4" s="268"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -3259,36 +3259,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="259" t="s">
+      <c r="A6" s="260" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="271" t="s">
+      <c r="B6" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="261" t="s">
+      <c r="C6" s="262" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="262"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="263" t="s">
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="264" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="264"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="268" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="266"/>
+      <c r="I6" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="269"/>
-      <c r="K6" s="270"/>
+      <c r="J6" s="270"/>
+      <c r="K6" s="271"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="257"/>
-      <c r="O6" s="258"/>
-      <c r="P6" s="258"/>
+      <c r="N6" s="258"/>
+      <c r="O6" s="259"/>
+      <c r="P6" s="259"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="260"/>
-      <c r="B7" s="272"/>
+      <c r="A7" s="261"/>
+      <c r="B7" s="273"/>
       <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
@@ -3324,26 +3324,26 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="241" t="s">
+      <c r="A8" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="241"/>
-      <c r="C8" s="234" t="s">
+      <c r="B8" s="242"/>
+      <c r="C8" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="235"/>
+      <c r="D8" s="236"/>
       <c r="E8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="234" t="s">
+      <c r="F8" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="235"/>
+      <c r="G8" s="236"/>
       <c r="H8" s="46"/>
-      <c r="I8" s="234" t="s">
+      <c r="I8" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="235"/>
+      <c r="J8" s="236"/>
       <c r="K8" s="46"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -3431,10 +3431,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="236" t="s">
+      <c r="A11" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="237"/>
+      <c r="B11" s="238"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>5</v>
@@ -3470,28 +3470,28 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="241" t="s">
+      <c r="A12" s="242" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="241"/>
-      <c r="C12" s="234" t="s">
+      <c r="B12" s="242"/>
+      <c r="C12" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="235"/>
+      <c r="D12" s="236"/>
       <c r="E12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="234" t="s">
+      <c r="F12" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="235"/>
+      <c r="G12" s="236"/>
       <c r="H12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="234" t="s">
+      <c r="I12" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="235"/>
+      <c r="J12" s="236"/>
       <c r="K12" s="46"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3680,10 +3680,10 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="16.5">
-      <c r="A18" s="236" t="s">
+      <c r="A18" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="237"/>
+      <c r="B18" s="238"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>13.25</v>
@@ -3723,28 +3723,28 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="273" t="s">
+      <c r="A19" s="274" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="273"/>
-      <c r="C19" s="234" t="s">
+      <c r="B19" s="274"/>
+      <c r="C19" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="235"/>
+      <c r="D19" s="236"/>
       <c r="E19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="234" t="s">
+      <c r="F19" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="235"/>
+      <c r="G19" s="236"/>
       <c r="H19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="234" t="s">
+      <c r="I19" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="235"/>
+      <c r="J19" s="236"/>
       <c r="K19" s="46"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -3820,10 +3820,10 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="274" t="s">
+      <c r="A22" s="275" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="256"/>
+      <c r="B22" s="257"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>4.8</v>
@@ -3859,24 +3859,24 @@
         <v>56</v>
       </c>
       <c r="B23" s="214"/>
-      <c r="C23" s="234" t="s">
+      <c r="C23" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="235"/>
+      <c r="D23" s="236"/>
       <c r="E23" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="234" t="s">
+      <c r="F23" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="235"/>
+      <c r="G23" s="236"/>
       <c r="H23" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="234" t="s">
+      <c r="I23" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="235"/>
+      <c r="J23" s="236"/>
       <c r="K23" s="46"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -3975,10 +3975,10 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="16.5">
-      <c r="A27" s="255" t="s">
+      <c r="A27" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="256"/>
+      <c r="B27" s="257"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>4</v>
@@ -4012,28 +4012,28 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="273" t="s">
+      <c r="A28" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="273"/>
-      <c r="C28" s="234">
-        <v>1</v>
-      </c>
-      <c r="D28" s="235"/>
+      <c r="B28" s="274"/>
+      <c r="C28" s="235">
+        <v>1</v>
+      </c>
+      <c r="D28" s="236"/>
       <c r="E28" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="234" t="s">
+      <c r="F28" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="235"/>
+      <c r="G28" s="236"/>
       <c r="H28" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="234" t="s">
+      <c r="I28" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="235"/>
+      <c r="J28" s="236"/>
       <c r="K28" s="46"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
@@ -4055,7 +4055,7 @@
         <v>66</v>
       </c>
       <c r="F29" s="89">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G29" s="90">
         <f>D29</f>
@@ -4148,10 +4148,10 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="236" t="s">
+      <c r="A32" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="237"/>
+      <c r="B32" s="238"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>4</v>
@@ -4163,7 +4163,7 @@
       <c r="E32" s="49"/>
       <c r="F32" s="50">
         <f>SUMPRODUCT(F29:F31,G29:G31)</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G32" s="51">
         <f>SUM(G29:G31)</f>
@@ -4183,21 +4183,21 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="241" t="s">
+      <c r="A33" s="242" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="241"/>
-      <c r="C33" s="234" t="s">
+      <c r="B33" s="242"/>
+      <c r="C33" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="235"/>
+      <c r="D33" s="236"/>
       <c r="E33" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="234" t="s">
+      <c r="F33" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="235"/>
+      <c r="G33" s="236"/>
       <c r="H33" s="46" t="s">
         <v>30</v>
       </c>
@@ -4342,10 +4342,10 @@
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A38" s="236" t="s">
+      <c r="A38" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="237"/>
+      <c r="B38" s="238"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>8.6000000000000014</v>
@@ -4385,24 +4385,24 @@
         <v>86</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="234" t="s">
+      <c r="C39" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="235"/>
+      <c r="D39" s="236"/>
       <c r="E39" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="234" t="s">
+      <c r="F39" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="235"/>
+      <c r="G39" s="236"/>
       <c r="H39" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="234" t="s">
+      <c r="I39" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="235"/>
+      <c r="J39" s="236"/>
       <c r="K39" s="46"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -4591,7 +4591,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="137.25">
+    <row r="45" spans="1:13" ht="121.5">
       <c r="A45" s="23" t="s">
         <v>103</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>34</v>
       </c>
       <c r="F45" s="86">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G45" s="87">
         <f t="shared" si="4"/>
@@ -4665,7 +4665,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" ht="229.5">
+    <row r="47" spans="1:13" ht="183">
       <c r="A47" s="23" t="s">
         <v>109</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>34</v>
       </c>
       <c r="F47" s="86">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="G47" s="87">
         <f t="shared" si="4"/>
@@ -4740,10 +4740,10 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="236" t="s">
+      <c r="A49" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="237"/>
+      <c r="B49" s="238"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>33.9</v>
@@ -4755,7 +4755,7 @@
       <c r="E49" s="59"/>
       <c r="F49" s="70">
         <f>SUMPRODUCT(F40:F48,G40:G48)</f>
-        <v>29.700000000000003</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="G49" s="51">
         <f>SUM(G40:G48)</f>
@@ -4779,28 +4779,28 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="241" t="s">
+      <c r="A50" s="242" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="241"/>
-      <c r="C50" s="234" t="s">
+      <c r="B50" s="242"/>
+      <c r="C50" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="235"/>
+      <c r="D50" s="236"/>
       <c r="E50" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="234" t="s">
+      <c r="F50" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="235"/>
+      <c r="G50" s="236"/>
       <c r="H50" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="I50" s="234" t="s">
+      <c r="I50" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="235"/>
+      <c r="J50" s="236"/>
       <c r="K50" s="46"/>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
@@ -4969,10 +4969,10 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="16.5">
-      <c r="A56" s="236" t="s">
+      <c r="A56" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="237"/>
+      <c r="B56" s="238"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>10.5</v>
@@ -5008,27 +5008,27 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="238" t="s">
+      <c r="A57" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="239"/>
-      <c r="C57" s="239"/>
-      <c r="D57" s="239"/>
-      <c r="E57" s="239"/>
-      <c r="F57" s="239"/>
-      <c r="G57" s="239"/>
-      <c r="H57" s="239"/>
-      <c r="I57" s="239"/>
-      <c r="J57" s="239"/>
-      <c r="K57" s="240"/>
+      <c r="B57" s="240"/>
+      <c r="C57" s="240"/>
+      <c r="D57" s="240"/>
+      <c r="E57" s="240"/>
+      <c r="F57" s="240"/>
+      <c r="G57" s="240"/>
+      <c r="H57" s="240"/>
+      <c r="I57" s="240"/>
+      <c r="J57" s="240"/>
+      <c r="K57" s="241"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="242" t="s">
+      <c r="A58" s="243" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="243"/>
+      <c r="B58" s="244"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
         <v>84.050000000000011</v>
@@ -5040,7 +5040,7 @@
       <c r="E58" s="26"/>
       <c r="F58" s="35">
         <f>F11+F18+F22+F27+F32+F38+F49+F56</f>
-        <v>81.25</v>
+        <v>84.45</v>
       </c>
       <c r="G58" s="27">
         <f>G11+G18+G22+G27+G32+G38+G49+G56</f>
@@ -5060,28 +5060,28 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="244" t="s">
+      <c r="A59" s="245" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="245"/>
-      <c r="C59" s="246">
+      <c r="B59" s="246"/>
+      <c r="C59" s="247">
         <f>C58/D58</f>
         <v>0.84050000000000014</v>
       </c>
-      <c r="D59" s="247"/>
-      <c r="E59" s="248"/>
-      <c r="F59" s="249">
+      <c r="D59" s="248"/>
+      <c r="E59" s="249"/>
+      <c r="F59" s="250">
         <f>F58/G58</f>
-        <v>0.8125</v>
-      </c>
-      <c r="G59" s="250"/>
-      <c r="H59" s="251"/>
-      <c r="I59" s="252">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="G59" s="251"/>
+      <c r="H59" s="252"/>
+      <c r="I59" s="253">
         <f>I58/J58</f>
         <v>0</v>
       </c>
-      <c r="J59" s="253"/>
-      <c r="K59" s="254"/>
+      <c r="J59" s="254"/>
+      <c r="K59" s="255"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
@@ -5175,15 +5175,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="276" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="38"/>
@@ -5207,15 +5207,15 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="279" t="s">
+      <c r="A6" s="280" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="280"/>
-      <c r="C6" s="280"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="281"/>
+      <c r="B6" s="281"/>
+      <c r="C6" s="281"/>
+      <c r="D6" s="281"/>
+      <c r="E6" s="281"/>
+      <c r="F6" s="281"/>
+      <c r="G6" s="282"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="130" t="s">
@@ -5378,8 +5378,8 @@
       <c r="A14" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="282"/>
-      <c r="C14" s="282"/>
+      <c r="B14" s="283"/>
+      <c r="C14" s="283"/>
       <c r="D14" s="140">
         <f>SUM(D8:D13)</f>
         <v>100</v>
@@ -5445,15 +5445,15 @@
       <c r="G17" s="154"/>
     </row>
     <row r="18" spans="1:7" ht="23.25">
-      <c r="A18" s="283" t="s">
+      <c r="A18" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="284"/>
-      <c r="C18" s="284"/>
-      <c r="D18" s="284"/>
-      <c r="E18" s="284"/>
-      <c r="F18" s="284"/>
-      <c r="G18" s="285"/>
+      <c r="B18" s="285"/>
+      <c r="C18" s="285"/>
+      <c r="D18" s="285"/>
+      <c r="E18" s="285"/>
+      <c r="F18" s="285"/>
+      <c r="G18" s="286"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="155" t="s">
@@ -5691,15 +5691,15 @@
       <c r="G29" s="183"/>
     </row>
     <row r="30" spans="1:7" ht="23.25">
-      <c r="A30" s="276" t="s">
+      <c r="A30" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="277"/>
-      <c r="C30" s="277"/>
-      <c r="D30" s="277"/>
-      <c r="E30" s="277"/>
-      <c r="F30" s="277"/>
-      <c r="G30" s="278"/>
+      <c r="B30" s="278"/>
+      <c r="C30" s="278"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="278"/>
+      <c r="F30" s="278"/>
+      <c r="G30" s="279"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="184" t="s">
@@ -5940,7 +5940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101BADF3-C115-4BB7-A238-E0CBC556CE80}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -5953,14 +5953,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="287" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="D1" s="286" t="s">
+      <c r="B1" s="287"/>
+      <c r="D1" s="287" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="286"/>
+      <c r="E1" s="287"/>
     </row>
     <row r="2" spans="1:5" ht="35.25" customHeight="1">
       <c r="B2" s="229" t="s">
@@ -6051,7 +6051,7 @@
         <v>178</v>
       </c>
       <c r="D9" s="219"/>
-      <c r="E9" s="287" t="s">
+      <c r="E9" s="234" t="s">
         <v>179</v>
       </c>
     </row>
